--- a/Output/PBL/Customer/Navy/Navy_Contracts.xlsx
+++ b/Output/PBL/Customer/Navy/Navy_Contracts.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -172,15 +173,28 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -216,10 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3679,4 +3694,796 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>16038300</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>57118643</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>143841901</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>219073551</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>607754390</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>832749972</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>567540356</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>902864179.4967</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1085673181.2391</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1218545744.4545</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>1295290917.0939</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>1745493347.0083</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>1487069254.4775</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>1682145796.9429</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1682135959.7913</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>1524060458.2238</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1771316526.4275</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>1153669090.5228</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>1452141202.2972</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>1715601812.8328</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>2160051738.2647</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>2610458750.0656</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>2776943998.9484</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>2649264663.6155</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>2552016318.1101</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>2872480616.35</v>
+      </c>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="n">
+        <v>600000</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>1981337</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>4506049</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>11831523</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>44399439</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>2974523</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>65675854.8125</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>14180095.0113</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>24650795.3703</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>14311983.6909</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>11006092.9376</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>15476528.39</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>4905212.2462</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>-3000000</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>-33106.98</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>-129639.17</v>
+      </c>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3" t="n">
+        <v>-30589.93</v>
+      </c>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="n">
+        <v>7542155</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="n">
+        <v>88681805</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>170770603</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>135049808</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>80744555</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>90710292</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>68773473.7285</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>187163837.8924</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>183406076.6926</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>170315764.249</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>183086664.7223</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>166181638.49</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>147891628.0063</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>102775927.1557</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>48215621.9691</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>22701413.2468</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>10941296.5738</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>17945829.2426</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>13202188.9919</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>16596560.628</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>12850735.6646</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>23578207.1524</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>15256791.92</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3" t="str">
+        <f>Sum(AI2:AI4)</f>
+      </c>
+      <c r="AJ5" s="3" t="str">
+        <f>Sum(AJ2:AJ4)</f>
+      </c>
+      <c r="AK5" s="3" t="str">
+        <f>Sum(AK2:AK4)</f>
+      </c>
+      <c r="AL5" s="3" t="str">
+        <f>Sum(AL2:AL4)</f>
+      </c>
+      <c r="AM5" s="3" t="str">
+        <f>Sum(AM2:AM4)</f>
+      </c>
+      <c r="AN5" s="3" t="str">
+        <f>Sum(AN2:AN4)</f>
+      </c>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>27524185.0136235</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>96026342.7631487</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>236100320.628665</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>354015202.26233</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>963613174.963245</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>1288877761.9684</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>852462794.319677</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>1313462404.32642</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>1537092615.00328</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>1690124746.79421</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>1778384457.98047</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>2375918519.08125</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>1984330389.26794</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>2204633213.56563</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>2165330976.92188</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>1926699048.66346</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>2216324399.11249</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>1432055988.81788</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>1772628765.98471</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>2048752819.61494</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>2532681930.63438</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>3021320750.67085</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>3107071988.55302</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>2770459500.48431</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>2552016318.1101</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>2797763575.86608</v>
+      </c>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="n">
+        <v>849478.079535296</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>2748117.3445303</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>6186631.43757498</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>16104750.3577234</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>59246168.8040913</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>3898432.71150027</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>84541301.2150185</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>17926306.9393388</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>30843814.9938761</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>17765546.5720498</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>13435137.6515092</v>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>18481900.018809</v>
+      </c>
+      <c r="AH10" s="3" t="n">
+        <v>5751409.65459357</v>
+      </c>
+      <c r="AI10" s="3" t="n">
+        <v>-3472172.18114815</v>
+      </c>
+      <c r="AJ10" s="3" t="n">
+        <v>-37042.7960457752</v>
+      </c>
+      <c r="AK10" s="3" t="n">
+        <v>-135569.72056965</v>
+      </c>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3" t="n">
+        <v>-29794.2452440435</v>
+      </c>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="n">
+        <v>12379600.1120083</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="n">
+        <v>140607714.372119</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>264307943.566805</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>202848899.612023</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>117464996.125649</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>128427341.07041</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>95388909.6084563</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>256968728.809276</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>249647410.50022</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>227267658.014645</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>239954790.3287</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>213917458.647442</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>186962831.721986</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>128596324.597048</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>59850325.160518</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>27711615.1556922</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>13065976.0546666</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>21041661.4786721</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>15280091.1159785</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>18569588.9629422</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>13438613.0608847</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>23578207.1524</v>
+      </c>
+      <c r="AM11" s="3" t="n">
+        <v>14859942.4745928</v>
+      </c>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Customer/Navy/Navy_Contracts.xlsx
+++ b/Output/PBL/Customer/Navy/Navy_Contracts.xlsx
@@ -191,10 +191,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -230,11 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3800,86 +3802,86 @@
       <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="4" t="n">
         <v>16038300</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="4" t="n">
         <v>57118643</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="4" t="n">
         <v>143841901</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="4" t="n">
         <v>219073551</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="4" t="n">
         <v>607754390</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="4" t="n">
         <v>832749972</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <v>567540356</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="4" t="n">
         <v>902864179.4967</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="4" t="n">
         <v>1085673181.2391</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="4" t="n">
         <v>1218545744.4545</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="4" t="n">
         <v>1295290917.0939</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="4" t="n">
         <v>1745493347.0083</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="4" t="n">
         <v>1487069254.4775</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="4" t="n">
         <v>1682145796.9429</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="4" t="n">
         <v>1682135959.7913</v>
       </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AC2" s="4" t="n">
         <v>1524060458.2238</v>
       </c>
-      <c r="AD2" s="3" t="n">
+      <c r="AD2" s="4" t="n">
         <v>1771316526.4275</v>
       </c>
-      <c r="AE2" s="3" t="n">
+      <c r="AE2" s="4" t="n">
         <v>1153669090.5228</v>
       </c>
-      <c r="AF2" s="3" t="n">
+      <c r="AF2" s="4" t="n">
         <v>1452141202.2972</v>
       </c>
-      <c r="AG2" s="3" t="n">
+      <c r="AG2" s="4" t="n">
         <v>1715601812.8328</v>
       </c>
-      <c r="AH2" s="3" t="n">
+      <c r="AH2" s="4" t="n">
         <v>2160051738.2647</v>
       </c>
-      <c r="AI2" s="3" t="n">
+      <c r="AI2" s="4" t="n">
         <v>2610458750.0656</v>
       </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>2776943998.9484</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="4" t="n">
         <v>2649264663.6155</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="4" t="n">
         <v>2552016318.1101</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="4" t="n">
         <v>2872480616.35</v>
       </c>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3888,68 +3890,68 @@
       <c r="M3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="n">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="n">
         <v>600000</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="4" t="n">
         <v>1981337</v>
       </c>
-      <c r="X3" s="3" t="n">
+      <c r="X3" s="4" t="n">
         <v>4506049</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="4" t="n">
         <v>11831523</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="4" t="n">
         <v>44399439</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="4" t="n">
         <v>2974523</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="4" t="n">
         <v>65675854.8125</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="4" t="n">
         <v>14180095.0113</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="4" t="n">
         <v>24650795.3703</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="4" t="n">
         <v>14311983.6909</v>
       </c>
-      <c r="AF3" s="3" t="n">
+      <c r="AF3" s="4" t="n">
         <v>11006092.9376</v>
       </c>
-      <c r="AG3" s="3" t="n">
+      <c r="AG3" s="4" t="n">
         <v>15476528.39</v>
       </c>
-      <c r="AH3" s="3" t="n">
+      <c r="AH3" s="4" t="n">
         <v>4905212.2462</v>
       </c>
-      <c r="AI3" s="3" t="n">
+      <c r="AI3" s="4" t="n">
         <v>-3000000</v>
       </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>-33106.98</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="4" t="n">
         <v>-129639.17</v>
       </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3" t="n">
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4" t="n">
         <v>-30589.93</v>
       </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3958,80 +3960,80 @@
       <c r="M4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="n">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="n">
         <v>7542155</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="n">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="n">
         <v>88681805</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <v>170770603</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="4" t="n">
         <v>135049808</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="4" t="n">
         <v>80744555</v>
       </c>
-      <c r="V4" s="3" t="n">
+      <c r="V4" s="4" t="n">
         <v>90710292</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="4" t="n">
         <v>68773473.7285</v>
       </c>
-      <c r="X4" s="3" t="n">
+      <c r="X4" s="4" t="n">
         <v>187163837.8924</v>
       </c>
-      <c r="Y4" s="3" t="n">
+      <c r="Y4" s="4" t="n">
         <v>183406076.6926</v>
       </c>
-      <c r="Z4" s="3" t="n">
+      <c r="Z4" s="4" t="n">
         <v>170315764.249</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="4" t="n">
         <v>183086664.7223</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="4" t="n">
         <v>166181638.49</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="4" t="n">
         <v>147891628.0063</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="4" t="n">
         <v>102775927.1557</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="4" t="n">
         <v>48215621.9691</v>
       </c>
-      <c r="AF4" s="3" t="n">
+      <c r="AF4" s="4" t="n">
         <v>22701413.2468</v>
       </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AG4" s="4" t="n">
         <v>10941296.5738</v>
       </c>
-      <c r="AH4" s="3" t="n">
+      <c r="AH4" s="4" t="n">
         <v>17945829.2426</v>
       </c>
-      <c r="AI4" s="3" t="n">
+      <c r="AI4" s="4" t="n">
         <v>13202188.9919</v>
       </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AJ4" s="4" t="n">
         <v>16596560.628</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="4" t="n">
         <v>12850735.6646</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="4" t="n">
         <v>23578207.1524</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="4" t="n">
         <v>15256791.92</v>
       </c>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4040,88 +4042,88 @@
       <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="3" t="str">
+      <c r="N5" s="4" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="3" t="str">
+      <c r="O5" s="4" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="3" t="str">
+      <c r="P5" s="4" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" s="4" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="3" t="str">
+      <c r="R5" s="4" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="3" t="str">
+      <c r="S5" s="4" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="3" t="str">
+      <c r="T5" s="4" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="3" t="str">
+      <c r="U5" s="4" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="3" t="str">
+      <c r="V5" s="4" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="3" t="str">
+      <c r="W5" s="4" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="3" t="str">
+      <c r="X5" s="4" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="3" t="str">
+      <c r="Y5" s="4" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="3" t="str">
+      <c r="Z5" s="4" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="3" t="str">
+      <c r="AA5" s="4" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="3" t="str">
+      <c r="AB5" s="4" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="3" t="str">
+      <c r="AC5" s="4" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="3" t="str">
+      <c r="AD5" s="4" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="3" t="str">
+      <c r="AE5" s="4" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="3" t="str">
+      <c r="AF5" s="4" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="3" t="str">
+      <c r="AG5" s="4" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="3" t="str">
+      <c r="AH5" s="4" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="3" t="str">
+      <c r="AI5" s="4" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="3" t="str">
+      <c r="AJ5" s="4" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="3" t="str">
+      <c r="AK5" s="4" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="3" t="str">
+      <c r="AL5" s="4" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="3" t="str">
+      <c r="AM5" s="4" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="3" t="str">
+      <c r="AN5" s="4" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="3"/>
+      <c r="AO5" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4216,86 +4218,86 @@
       <c r="M9" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="4" t="n">
         <v>27524185.0136235</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="4" t="n">
         <v>96026342.7631487</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <v>236100320.628665</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>354015202.26233</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <v>963613174.963245</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <v>1288877761.9684</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="4" t="n">
         <v>852462794.319677</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="4" t="n">
         <v>1313462404.32642</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="4" t="n">
         <v>1537092615.00328</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="4" t="n">
         <v>1690124746.79421</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="4" t="n">
         <v>1778384457.98047</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="4" t="n">
         <v>2375918519.08125</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="4" t="n">
         <v>1984330389.26794</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="4" t="n">
         <v>2204633213.56563</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="4" t="n">
         <v>2165330976.92188</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AC9" s="4" t="n">
         <v>1926699048.66346</v>
       </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AD9" s="4" t="n">
         <v>2216324399.11249</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="4" t="n">
         <v>1432055988.81788</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="4" t="n">
         <v>1772628765.98471</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AG9" s="4" t="n">
         <v>2048752819.61494</v>
       </c>
-      <c r="AH9" s="3" t="n">
+      <c r="AH9" s="4" t="n">
         <v>2532681930.63438</v>
       </c>
-      <c r="AI9" s="3" t="n">
+      <c r="AI9" s="4" t="n">
         <v>3021320750.67085</v>
       </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AJ9" s="4" t="n">
         <v>3107071988.55302</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="4" t="n">
         <v>2770459500.48431</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="4" t="n">
         <v>2552016318.1101</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="4" t="n">
         <v>2797763575.86608</v>
       </c>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4304,68 +4306,68 @@
       <c r="M10" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3" t="n">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4" t="n">
         <v>849478.079535296</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="4" t="n">
         <v>2748117.3445303</v>
       </c>
-      <c r="X10" s="3" t="n">
+      <c r="X10" s="4" t="n">
         <v>6186631.43757498</v>
       </c>
-      <c r="Y10" s="3" t="n">
+      <c r="Y10" s="4" t="n">
         <v>16104750.3577234</v>
       </c>
-      <c r="Z10" s="3" t="n">
+      <c r="Z10" s="4" t="n">
         <v>59246168.8040913</v>
       </c>
-      <c r="AA10" s="3" t="n">
+      <c r="AA10" s="4" t="n">
         <v>3898432.71150027</v>
       </c>
-      <c r="AB10" s="3" t="n">
+      <c r="AB10" s="4" t="n">
         <v>84541301.2150185</v>
       </c>
-      <c r="AC10" s="3" t="n">
+      <c r="AC10" s="4" t="n">
         <v>17926306.9393388</v>
       </c>
-      <c r="AD10" s="3" t="n">
+      <c r="AD10" s="4" t="n">
         <v>30843814.9938761</v>
       </c>
-      <c r="AE10" s="3" t="n">
+      <c r="AE10" s="4" t="n">
         <v>17765546.5720498</v>
       </c>
-      <c r="AF10" s="3" t="n">
+      <c r="AF10" s="4" t="n">
         <v>13435137.6515092</v>
       </c>
-      <c r="AG10" s="3" t="n">
+      <c r="AG10" s="4" t="n">
         <v>18481900.018809</v>
       </c>
-      <c r="AH10" s="3" t="n">
+      <c r="AH10" s="4" t="n">
         <v>5751409.65459357</v>
       </c>
-      <c r="AI10" s="3" t="n">
+      <c r="AI10" s="4" t="n">
         <v>-3472172.18114815</v>
       </c>
-      <c r="AJ10" s="3" t="n">
+      <c r="AJ10" s="4" t="n">
         <v>-37042.7960457752</v>
       </c>
-      <c r="AK10" s="3" t="n">
+      <c r="AK10" s="4" t="n">
         <v>-135569.72056965</v>
       </c>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3" t="n">
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4" t="n">
         <v>-29794.2452440435</v>
       </c>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4374,113 +4376,113 @@
       <c r="M11" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3" t="n">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="n">
         <v>12379600.1120083</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="n">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4" t="n">
         <v>140607714.372119</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="4" t="n">
         <v>264307943.566805</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <v>202848899.612023</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="4" t="n">
         <v>117464996.125649</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="4" t="n">
         <v>128427341.07041</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="4" t="n">
         <v>95388909.6084563</v>
       </c>
-      <c r="X11" s="3" t="n">
+      <c r="X11" s="4" t="n">
         <v>256968728.809276</v>
       </c>
-      <c r="Y11" s="3" t="n">
+      <c r="Y11" s="4" t="n">
         <v>249647410.50022</v>
       </c>
-      <c r="Z11" s="3" t="n">
+      <c r="Z11" s="4" t="n">
         <v>227267658.014645</v>
       </c>
-      <c r="AA11" s="3" t="n">
+      <c r="AA11" s="4" t="n">
         <v>239954790.3287</v>
       </c>
-      <c r="AB11" s="3" t="n">
+      <c r="AB11" s="4" t="n">
         <v>213917458.647442</v>
       </c>
-      <c r="AC11" s="3" t="n">
+      <c r="AC11" s="4" t="n">
         <v>186962831.721986</v>
       </c>
-      <c r="AD11" s="3" t="n">
+      <c r="AD11" s="4" t="n">
         <v>128596324.597048</v>
       </c>
-      <c r="AE11" s="3" t="n">
+      <c r="AE11" s="4" t="n">
         <v>59850325.160518</v>
       </c>
-      <c r="AF11" s="3" t="n">
+      <c r="AF11" s="4" t="n">
         <v>27711615.1556922</v>
       </c>
-      <c r="AG11" s="3" t="n">
+      <c r="AG11" s="4" t="n">
         <v>13065976.0546666</v>
       </c>
-      <c r="AH11" s="3" t="n">
+      <c r="AH11" s="4" t="n">
         <v>21041661.4786721</v>
       </c>
-      <c r="AI11" s="3" t="n">
+      <c r="AI11" s="4" t="n">
         <v>15280091.1159785</v>
       </c>
-      <c r="AJ11" s="3" t="n">
+      <c r="AJ11" s="4" t="n">
         <v>18569588.9629422</v>
       </c>
-      <c r="AK11" s="3" t="n">
+      <c r="AK11" s="4" t="n">
         <v>13438613.0608847</v>
       </c>
-      <c r="AL11" s="3" t="n">
+      <c r="AL11" s="4" t="n">
         <v>23578207.1524</v>
       </c>
-      <c r="AM11" s="3" t="n">
+      <c r="AM11" s="4" t="n">
         <v>14859942.4745928</v>
       </c>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Customer/Navy/Navy_Contracts.xlsx
+++ b/Output/PBL/Customer/Navy/Navy_Contracts.xlsx
@@ -192,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -233,10 +233,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
